--- a/docs/Examples/Example7_Useful_EOS_Calcs/FI_densities.xlsx
+++ b/docs/Examples/Example7_Useful_EOS_Calcs/FI_densities.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Example7_Useful_EOS_Calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\Examples\Example7_Useful_EOS_Calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5B9FA-C18D-4251-AE13-8265CF187C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0501679-C4EF-4B6E-B515-FC9330276A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E17CC471-46B8-4A7E-B761-81AAC122D38B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E17CC471-46B8-4A7E-B761-81AAC122D38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MI_data" sheetId="2" r:id="rId2"/>
+    <sheet name="FI_data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F0BBBFD5-CEFC-4E5C-A942-5B78E730465F}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0BBBFD5-CEFC-4E5C-A942-5B78E730465F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    *Saturation pressure calculated using total CO2 (bubble + glass) corrected for PEC, as well as PEC-corrected major element compositions</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Sample</t>
   </si>
@@ -61,12 +81,18 @@
   <si>
     <t>Temp in C</t>
   </si>
+  <si>
+    <t>Sat P (Bars)</t>
+  </si>
+  <si>
+    <t>XCO2 (molar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +100,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -91,12 +142,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +221,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="P.E. Wieser" id="{AB8FC8B6-30BB-41D5-AF73-7740F8EBB906}" userId="P.E. Wieser" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,12 +524,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-07-30T15:34:06.76" personId="{AB8FC8B6-30BB-41D5-AF73-7740F8EBB906}" id="{F0BBBFD5-CEFC-4E5C-A942-5B78E730465F}">
+    <text>*Saturation pressure calculated using total CO2 (bubble + glass) corrected for PEC, as well as PEC-corrected major element compositions</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C247BB-4FA0-4B35-9102-E430A5EF6568}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,4 +615,2654 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D625E7FC-A1AC-41B3-8804-87F508B53EF9}">
+  <dimension ref="A1:B394"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>310</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.95910714183789125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>360</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.96342267138660298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>430</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.96878207662746862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>970</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.98691075289249297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>600</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.97839144944403933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>590</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.97787157357961019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>610</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.97793599638347217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.98725914138180138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.98682979953680683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.77652110340022706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>700</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.98046345812553592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>530</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.97549099265307992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>900</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.98478869913913525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>390</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.96942602781775866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>790</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.98162442789530224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>350</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.96167078704235298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>420</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.9705061446553217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>670</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.97619065300766261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>430</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.9707888045712858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>830</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.98586399946401426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>640</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.97901416562708554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>590</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.97706083696137169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>740</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.98199645209935493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>650</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.98139489329309437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>680</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.98034131434891991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>760</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.98310505527406189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>970</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.98632766816891171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>380</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.96302053373159469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>790</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.98265853488555466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>560</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.96561807234015562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>830</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.97468152435204192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.98473814137006233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>720</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.96991388990667371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>680</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.97160609728728153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>910</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.97643661189993047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>700</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.97058551378814473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>870</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.97436183026019396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>800</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.97557303298535925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>910</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.97837429962552991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>300</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.94310713894296849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>670</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.97300230586707548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>330</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.96184792164628463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>470</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.9724807710861495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>640</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.98137600744985853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>750</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.98197461436754574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>340</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.96722396253405341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>650</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.97969071334841096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>500</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.97562825154206878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>250</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.95894677757110336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>280</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.95822677499988951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>460</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.9733455650720354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>960</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.98315462485549832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>2110</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.99009416433204345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>210</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.92252085179984156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>780</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.98788756605422101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <v>780</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.98390030333456713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>350</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.94045156787684991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>390</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.95320191708934821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>380</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.95402499525141549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>390</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.95304122799372193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>410</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.95453250613121587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>130</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.89031875057141197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>180</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.90891326766959279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>190</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.91451395472321717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>340</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.94963176903189594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>180</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.92204707044902856</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>20</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.49410315820822043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>280</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.96410702217282629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>480</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.99585405193659393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>360</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.99485392008505313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
+        <v>190</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0.94887615454153085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>630</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0.96347856656259745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>380</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.94854020109140413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>440</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.95568691924098537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>450</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.9561698342411844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>440</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.95328627288359913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>40</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.74256961309187541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>50</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.77453207228460441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>40</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.7355651805963993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>30</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.64749183746175132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>150</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.93527638751822362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>40</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.7059710313439902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>50</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0.77212353292452063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>80</v>
+      </c>
+      <c r="B85" s="7">
+        <v>0.84358697261981785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>330</v>
+      </c>
+      <c r="B86" s="7">
+        <v>0.9414938212223436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>310</v>
+      </c>
+      <c r="B87" s="7">
+        <v>0.93145112279020315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>300</v>
+      </c>
+      <c r="B88" s="7">
+        <v>0.94179898587353728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>400</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0.94897314435068703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>520</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0.96015502714229906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>50</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0.82643827168290473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>140</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0.91338404188570788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>180</v>
+      </c>
+      <c r="B93" s="7">
+        <v>0.93895516387645828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>240</v>
+      </c>
+      <c r="B94" s="7">
+        <v>0.94887622466767452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>280</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0.95604081551279652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>390</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0.96251385198124773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>340</v>
+      </c>
+      <c r="B97" s="7">
+        <v>0.96629083599083743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>50</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0.78982023412573998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>20</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0.43456548085422447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>40</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0.7472956012770765</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>70</v>
+      </c>
+      <c r="B101" s="7">
+        <v>0.84491259485882297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>420</v>
+      </c>
+      <c r="B102" s="7">
+        <v>0.95833602564924825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>40</v>
+      </c>
+      <c r="B103" s="7">
+        <v>0.76420518221880773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>60</v>
+      </c>
+      <c r="B104" s="7">
+        <v>0.84629139762318228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="4"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="4"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="4"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="4"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="4"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="4"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="4"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="4"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="4"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="4"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="4"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="4"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="4"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="4"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="4"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="4"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="4"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="4"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="4"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="4"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="4"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="4"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="4"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="4"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="4"/>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="4"/>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="4"/>
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="4"/>
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="4"/>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="4"/>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="4"/>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="4"/>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="4"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="4"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="4"/>
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="4"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="4"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="4"/>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="4"/>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="4"/>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="4"/>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="4"/>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="4"/>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="4"/>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="4"/>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="4"/>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="4"/>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="4"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="4"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="4"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="4"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="4"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="4"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="4"/>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="4"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="4"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="4"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="4"/>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="4"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="4"/>
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="4"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="4"/>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="4"/>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="4"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="4"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="4"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="4"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="4"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="4"/>
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="4"/>
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="4"/>
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="4"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="4"/>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="4"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="4"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="4"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="4"/>
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="4"/>
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="4"/>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="4"/>
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="4"/>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="4"/>
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="4"/>
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="4"/>
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="4"/>
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="4"/>
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="4"/>
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="4"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="4"/>
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="4"/>
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="4"/>
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="4"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="4"/>
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="4"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="4"/>
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="4"/>
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="4"/>
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="4"/>
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="4"/>
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="4"/>
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="4"/>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="4"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="4"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="4"/>
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="4"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="4"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="4"/>
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="4"/>
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="4"/>
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="4"/>
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="4"/>
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="4"/>
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="4"/>
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="4"/>
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="4"/>
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="4"/>
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="4"/>
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="4"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="4"/>
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="4"/>
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="4"/>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="4"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="4"/>
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="4"/>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="4"/>
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="4"/>
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="4"/>
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="4"/>
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="4"/>
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="4"/>
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="4"/>
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="4"/>
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="4"/>
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="4"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="4"/>
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="4"/>
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="4"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="4"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="4"/>
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="4"/>
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="4"/>
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="4"/>
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="4"/>
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="4"/>
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="4"/>
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="4"/>
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="4"/>
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="4"/>
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="4"/>
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="4"/>
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="4"/>
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="4"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="4"/>
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="4"/>
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="4"/>
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="4"/>
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="4"/>
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="4"/>
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="4"/>
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="4"/>
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="4"/>
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="4"/>
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="4"/>
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="4"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="4"/>
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="4"/>
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="4"/>
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="4"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="4"/>
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="4"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="4"/>
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="4"/>
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="4"/>
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="4"/>
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="4"/>
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="4"/>
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="4"/>
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="4"/>
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="4"/>
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="4"/>
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="4"/>
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="4"/>
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="4"/>
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="4"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="4"/>
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="4"/>
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="4"/>
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="4"/>
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="4"/>
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="4"/>
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="4"/>
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="4"/>
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="4"/>
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="4"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="4"/>
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="4"/>
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="4"/>
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="4"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="4"/>
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="4"/>
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="4"/>
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="4"/>
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="4"/>
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="4"/>
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="4"/>
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="4"/>
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="4"/>
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="4"/>
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="4"/>
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="4"/>
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="4"/>
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="4"/>
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="4"/>
+      <c r="B394" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D60239E-6C76-4A6E-87E7-12F9E4A14D29}">
+  <dimension ref="A1:A124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.17660495188708111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.1805775727680157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.18085846801962671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.14731699770651349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.1024137476578844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8.0377751244867568E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.20409748058834029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.12733196532218469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.1255369057766238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.1677496646127494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.15970058991221239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.17628233153118339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.16749374028609049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.1767974443646381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.17632954321197761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.17882585586266939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.17643787957968021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.17510549389589869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.16051118038596709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.1768751494328171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.157899018267635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.101636444889678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.1018036540065452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0.11364745929851949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0.1136662516256095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0.1147177954436458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>9.8943143978431181E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7.4265100184362609E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4.4783124447263838E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>4.3681663969266538E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8.7512531746753552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8.057072491993722E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.29753171128686517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.13723787756156011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9.0418368049782316E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7.0465931101825419E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>7.5039467799250303E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>7.5033508256549197E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7.8926100470212646E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5.7147687243322309E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>7.1184589435361545E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>7.2786667360659862E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>7.2386482164738197E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>8.4474109361892147E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>6.3451874119564877E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>6.6019742977971418E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>6.2710914406260088E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.22791513007905451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>9.6817280702737207E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0.11488512283543879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>9.3580780085353865E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>9.3965084708500513E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>7.4636484327825769E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0.12725589240830709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0.15198313416111381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0.12941990896771219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0.1885616634717735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0.15233330629487801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>0.1162193717697448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0.13004530003313161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0.14279690811989099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0.26814943819954351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>0.2129066994148161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>0.1027844149481396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>0.1013548673484692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>9.9433421445112913E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>6.7633984153367521E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>9.0976722997098136E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>8.7129311773381346E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>9.8676523304067842E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>0.21518346398079299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0.1300826887082186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>6.4045537078264658E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>0.133797389972969</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5.3353793794471471E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5.3588936362700679E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>0.13379378969306899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>6.3860319773905161E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>0.18568622162729301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8.8791767658285892E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>7.3195964808071778E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>8.0540793193613069E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>0.11629505705942481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>0.1270996649962797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>6.5762244895008592E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5.5918202186184367E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>6.2846670464324461E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>0.21937735348183199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>0.1267074217628732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>7.8676779336355196E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>9.0331947241132582E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>0.12621431263293911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>7.7063696275295968E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>6.0057982251244368E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>4.2875453340698748E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>7.961866395326922E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>0.1437017329342396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>0.13082250602047199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>8.6057277948683009E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>0.1186959329538908</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>0.1020526179094432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>8.353668415934834E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>8.4926390139372643E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>9.3487165938512362E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>8.0625672295035145E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>0.13063132463325641</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>0.11792857189921691</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>0.1167017100319931</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>0.19897876803452161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>0.1223760501987954</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>0.12637024172050099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>0.1205220778526765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>0.13023779997873669</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>0.1354654103873596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>0.12536121522996521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>0.114317778719446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>0.11640803762050921</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>0.11780646863029889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>0.10944380064434971</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>0.13429301803308391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>0.1215049546730924</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>6.324886975102828E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>8.2746903164647279E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>